--- a/res/Main Bill.xlsx
+++ b/res/Main Bill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\ESI\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\ESI\ESI - Python\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC12AC-09BA-471E-8522-2933878B7A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD38896-ED6E-4674-B516-276C12EFDC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Bill" sheetId="8" r:id="rId1"/>
@@ -576,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -731,47 +731,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -792,6 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,8 +1100,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1649,7 +1650,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="69" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="69" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -1732,10 +1733,10 @@
       <c r="J8" s="39"/>
     </row>
     <row r="9" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
       <c r="F9" s="8" t="s">
@@ -1748,13 +1749,13 @@
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="39"/>
@@ -1768,53 +1769,53 @@
       <c r="J11" s="39"/>
     </row>
     <row r="12" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="73" t="s">
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="73"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1865,13 +1866,13 @@
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
       <c r="I20" s="4">
         <f>'Main Bill'!H28+'Main Bill'!H29</f>
         <v>0</v>
@@ -1881,7 +1882,7 @@
       <c r="C21" s="4">
         <v>2</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="55"/>
@@ -1929,7 +1930,7 @@
       <c r="C24" s="4">
         <v>5</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="66" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="55"/>
@@ -1945,13 +1946,13 @@
       <c r="C25" s="4">
         <v>6</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
       <c r="I25" s="4">
         <f>'Main Bill'!H37</f>
         <v>0</v>
@@ -1961,13 +1962,13 @@
       <c r="C26" s="4">
         <v>7</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
       <c r="I26" s="4">
         <f>'Main Bill'!H39 + 'Main Bill'!H38</f>
         <v>0</v>
@@ -1977,13 +1978,13 @@
       <c r="C27" s="4">
         <v>8</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="4">
         <f>'Main Bill'!H30</f>
         <v>0</v>
@@ -1993,13 +1994,13 @@
       <c r="C28" s="4">
         <v>9</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="4">
         <f>'Main Bill'!H31</f>
         <v>0</v>
@@ -2009,13 +2010,13 @@
       <c r="C29" s="4">
         <v>10</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
       <c r="I29" s="4">
         <f>'Main Bill'!H32</f>
         <v>0</v>
@@ -2025,13 +2026,13 @@
       <c r="C30" s="4">
         <v>11</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="4">
         <f>'Main Bill'!H33</f>
         <v>0</v>
@@ -2039,82 +2040,82 @@
     </row>
     <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C31" s="4"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="69"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C32" s="4"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="70"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="72"/>
+      <c r="H33" s="71"/>
       <c r="I33">
         <f>SUM(I20:I32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="64"/>
-      <c r="I40" s="65" t="s">
+      <c r="D40" s="63"/>
+      <c r="I40" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="J40" s="65"/>
+      <c r="J40" s="64"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="F41" s="65" t="s">
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="F41" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
+      <c r="G41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
     </row>
     <row r="43" spans="3:10" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H43" s="10"/>
-      <c r="I43" s="63" t="s">
+      <c r="I43" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="J43" s="63"/>
+      <c r="J43" s="62"/>
     </row>
     <row r="44" spans="3:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
     </row>
     <row r="47" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H47" s="10"/>
@@ -2130,7 +2131,6 @@
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D25:H25"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="D28:H28"/>
@@ -2154,6 +2154,7 @@
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
@@ -2162,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670BA9EC-D0C1-439C-ABBA-3CF3B6E28F60}">
-  <dimension ref="B2:J51"/>
+  <dimension ref="B2:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2208,7 +2209,7 @@
     <row r="5" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="34"/>
       <c r="C5" s="12"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>90</v>
       </c>
       <c r="F5" s="12"/>
@@ -2256,14 +2257,14 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="83" t="s">
@@ -2277,20 +2278,20 @@
         <v>59</v>
       </c>
       <c r="C15" s="83"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="83" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="83"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -2304,282 +2305,286 @@
       <c r="D18" s="82"/>
       <c r="E18" s="82"/>
       <c r="F18" s="82"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="11" t="s">
+      <c r="G18" s="85">
+        <f>'Main Bill'!C7</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="I18">
+        <f>H39</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
+      <c r="B19" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="B21" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="71">
+        <f>'Main Bill'!D15</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="82" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C22" s="82"/>
       <c r="D22" s="82"/>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="72">
-        <f>'Main Bill'!D15</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="84" t="s">
+      <c r="B23" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-    </row>
-    <row r="25" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="47"/>
+    </row>
     <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="47"/>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="55">
+        <f>'Essentiality Certificate'!I20</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
       <c r="G27" s="4"/>
       <c r="H27" s="55">
-        <f>'Essentiality Certificate'!I20</f>
+        <f>'Essentiality Certificate'!I21</f>
         <v>0</v>
       </c>
       <c r="I27" s="55"/>
     </row>
     <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
       <c r="G28" s="4"/>
       <c r="H28" s="55">
-        <f>'Essentiality Certificate'!I21</f>
+        <f>'Essentiality Certificate'!I22</f>
         <v>0</v>
       </c>
       <c r="I28" s="55"/>
     </row>
     <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C29" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="4"/>
       <c r="H29" s="55">
-        <f>'Essentiality Certificate'!I22</f>
+        <f>'Essentiality Certificate'!I23</f>
         <v>0</v>
       </c>
       <c r="I29" s="55"/>
     </row>
     <row r="30" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
       <c r="G30" s="4"/>
       <c r="H30" s="55">
-        <f>'Essentiality Certificate'!I23</f>
+        <f>'Essentiality Certificate'!I24</f>
         <v>0</v>
       </c>
       <c r="I30" s="55"/>
     </row>
     <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C31" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
       <c r="G31" s="4"/>
       <c r="H31" s="55">
-        <f>'Essentiality Certificate'!I24</f>
+        <f>'Essentiality Certificate'!I25</f>
         <v>0</v>
       </c>
       <c r="I31" s="55"/>
     </row>
     <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C32" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
       <c r="G32" s="4"/>
       <c r="H32" s="55">
-        <f>'Essentiality Certificate'!I25</f>
+        <f>'Essentiality Certificate'!I26</f>
         <v>0</v>
       </c>
       <c r="I32" s="55"/>
     </row>
     <row r="33" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
       <c r="G33" s="4"/>
       <c r="H33" s="55">
-        <f>'Essentiality Certificate'!I26</f>
+        <f>'Essentiality Certificate'!I27</f>
         <v>0</v>
       </c>
       <c r="I33" s="55"/>
     </row>
     <row r="34" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
       <c r="G34" s="4"/>
       <c r="H34" s="55">
-        <f>'Essentiality Certificate'!I27</f>
+        <f>'Essentiality Certificate'!I28</f>
         <v>0</v>
       </c>
       <c r="I34" s="55"/>
     </row>
     <row r="35" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C35" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
       <c r="G35" s="4"/>
       <c r="H35" s="55">
-        <f>'Essentiality Certificate'!I28</f>
+        <f>'Essentiality Certificate'!I29</f>
         <v>0</v>
       </c>
       <c r="I35" s="55"/>
     </row>
     <row r="36" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C36" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
       <c r="G36" s="4"/>
       <c r="H36" s="55">
-        <f>'Essentiality Certificate'!I29</f>
+        <f>'Essentiality Certificate'!I30</f>
         <v>0</v>
       </c>
       <c r="I36" s="55"/>
     </row>
     <row r="37" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="4">
-        <v>11</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="80"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="55">
-        <f>'Essentiality Certificate'!I30</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="55"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="80"/>
     </row>
     <row r="38" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="4"/>
@@ -2590,118 +2595,107 @@
       <c r="H38" s="79"/>
       <c r="I38" s="80"/>
     </row>
-    <row r="39" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="4"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="80"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F40" s="72" t="s">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="F39" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="G40" s="72"/>
-      <c r="H40" s="78">
-        <f>SUM(H27:H39)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="78"/>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-    </row>
-    <row r="49" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="64" t="s">
+      <c r="G39" s="71"/>
+      <c r="H39" s="78">
+        <f>SUM(H26:H38)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="78"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+    </row>
+    <row r="48" spans="3:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="F49" s="76" t="s">
+      <c r="D48" s="63"/>
+      <c r="F48" s="76" t="s">
         <v>51</v>
       </c>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="J48" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="F49" s="76"/>
       <c r="G49" s="76"/>
       <c r="H49" s="76"/>
-      <c r="J49" s="77" t="s">
-        <v>77</v>
-      </c>
+      <c r="J49" s="77"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
       <c r="F50" s="76"/>
       <c r="G50" s="76"/>
       <c r="H50" s="76"/>
-      <c r="J50" s="77"/>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B24:I24"/>
+  <mergeCells count="49">
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:I26"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="H20:J20"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C48:D50"/>
+    <mergeCell ref="F48:H50"/>
+    <mergeCell ref="D36:F36"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C49:D51"/>
-    <mergeCell ref="F49:H51"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
